--- a/excel/formatos/activos.xlsx
+++ b/excel/formatos/activos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\astlix_sw_1\Dropbox (Astlix)\Howard\Proyectos\CAT\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB676255-47FD-4017-8028-B3F61CD34A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EDEDBD-DE97-4C58-8D46-3AD6A0A64F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FB1948B2-46BD-4A9F-BCE7-3DC848B8465E}"/>
   </bookViews>
@@ -412,11 +412,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -735,7 +737,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,852 +746,852 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>36526</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>36526</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="5">
         <v>36526</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="5">
         <v>36526</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>42543</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D11" s="4">
         <v>3</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>42543</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>3</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="5">
         <v>36526</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="5">
         <v>42208</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>1</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="5">
         <v>36526</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="5">
         <v>42444</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D21" s="4">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="5">
         <v>36526</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>1</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D23" s="4">
         <v>2</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D24" s="4">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D25" s="4">
         <v>2</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D26" s="4">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="5">
         <v>36526</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>2</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="5">
         <v>36526</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>2</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D29" s="4">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D30" s="4">
         <v>2</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D31" s="4">
         <v>2</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="5">
         <v>42417</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="4">
         <v>2</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="5">
         <v>42417</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="4">
         <v>2</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D34" s="4">
         <v>2</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="5">
         <v>42417</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="4">
         <v>2</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="5">
         <v>42417</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="4">
         <v>2</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="5">
         <v>42417</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <v>4</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="5">
         <v>42417</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="4">
         <v>4</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="5">
         <v>36526</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="4">
         <v>4</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="5">
         <v>42417</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="4">
         <v>4</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D41" s="4">
         <v>4</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="5">
         <v>36526</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="4">
         <v>4</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="5">
         <v>42417</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="4">
         <v>4</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="5">
         <v>42417</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="4">
         <v>4</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="5">
         <v>42417</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="4">
         <v>4</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="5">
         <v>42417</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="4">
         <v>4</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="5">
         <v>36526</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="4">
         <v>4</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D48">
+      <c r="C48" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D48" s="4">
         <v>4</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D49">
+      <c r="C49" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D49" s="4">
         <v>4</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="2">
-        <v>42565</v>
-      </c>
-      <c r="D50">
+      <c r="C50" s="5">
+        <v>42565</v>
+      </c>
+      <c r="D50" s="4">
         <v>4</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="4" t="s">
         <v>102</v>
       </c>
     </row>
